--- a/PM/src/main/java/testData/TestData.xlsx
+++ b/PM/src/main/java/testData/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mallikar\Documents\Python_Workspace\PM_SNM_Automation\test_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mallikar\git\PM\PM\src\main\java\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2BE965F-3D13-4891-9C5A-654B9116ECF0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93597F12-82BD-454A-9822-EA830AB699DB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="logindata" sheetId="1" r:id="rId1"/>
@@ -468,7 +468,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -586,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ECD1104-8824-4B0E-911A-8B0EFA495306}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -707,7 +707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E53A9E-ACD5-46DD-9427-7F06AD780F15}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>

--- a/PM/src/main/java/testData/TestData.xlsx
+++ b/PM/src/main/java/testData/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mallikar\git\PM\PM\src\main\java\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93597F12-82BD-454A-9822-EA830AB699DB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D62385-1F4C-444F-87A7-7297DB73DC03}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1060" yWindow="1060" windowWidth="14400" windowHeight="7360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="logindata" sheetId="1" r:id="rId1"/>
@@ -124,18 +124,18 @@
     <t>test_create_user_with_new_extension</t>
   </si>
   <si>
-    <t>http://10.211.162.113/mp</t>
-  </si>
-  <si>
-    <t>http://10.211.162.113/wbm</t>
-  </si>
-  <si>
     <t xml:space="preserve">ExtUser,Mitel@123,Mxone@gmail.com,IP,77777-77778,77777,
 number_initiate -number 77777..77778 -numbertype ex,
 ip_extension -e -d 77777,
 extension -e -d 77777,
 number_end -number 77777..77778 -numbertype ex
 </t>
+  </si>
+  <si>
+    <t>http://10.211.162.111/mp</t>
+  </si>
+  <si>
+    <t>http://10.211.162.111/wbm</t>
   </si>
 </sst>
 </file>
@@ -656,7 +656,7 @@
         <v>27</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -708,7 +708,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -718,12 +718,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/PM/src/main/java/testData/TestData.xlsx
+++ b/PM/src/main/java/testData/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mallikar\git\PM\PM\src\main\java\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D62385-1F4C-444F-87A7-7297DB73DC03}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8339B4-3B60-4E88-B56F-C108009DFE98}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="1060" windowWidth="14400" windowHeight="7360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="logindata" sheetId="1" r:id="rId1"/>
@@ -468,7 +468,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -586,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ECD1104-8824-4B0E-911A-8B0EFA495306}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -607,7 +607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -707,7 +707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E53A9E-ACD5-46DD-9427-7F06AD780F15}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>

--- a/PM/src/main/java/testData/TestData.xlsx
+++ b/PM/src/main/java/testData/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mallikar\git\PM\PM\src\main\java\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8339B4-3B60-4E88-B56F-C108009DFE98}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4314B7-8596-4A99-9009-E41DE4479AD1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
   <si>
     <t>Arjuna,Arjuna@12345</t>
   </si>
@@ -136,6 +136,10 @@
   </si>
   <si>
     <t>http://10.211.162.111/wbm</t>
+  </si>
+  <si>
+    <t>TestUsr1,Mitel@123,Mitel@gmail.com,MitelFirst,MitelSecond,
+Business1,Business2,+917975935256,+918105855417,EditedUser</t>
   </si>
 </sst>
 </file>
@@ -587,7 +591,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -618,12 +622,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>

--- a/PM/src/main/java/testData/TestData.xlsx
+++ b/PM/src/main/java/testData/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mallikar\git\PM\PM\src\main\java\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4314B7-8596-4A99-9009-E41DE4479AD1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD47179C-6864-4EF1-BB6A-A5D201ACA628}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
   <si>
     <t>Arjuna,Arjuna@12345</t>
   </si>
@@ -76,9 +76,6 @@
     <t>test_edit_user</t>
   </si>
   <si>
-    <t>test_assign_extension_to_user</t>
-  </si>
-  <si>
     <t>test_snm_valid_login</t>
   </si>
   <si>
@@ -101,35 +98,6 @@
   </si>
   <si>
     <t>mxone_budmin,Mxone@456</t>
-  </si>
-  <si>
-    <t>number_initiate -number 77777 -numbertype ex,
-extension -i -d 77777 -l 1 --csp 0,
-ip_extension -i -d 77777,
-TestUser2,
-Mitel@123,
-Mitel@gmail.com,
-77777,
-ip_extension -e -d 77777,
-extension -e -d 77777,
-number_end -number 77777..88888 -numbertype ex</t>
-  </si>
-  <si>
-    <t>test_no_users_found</t>
-  </si>
-  <si>
-    <t>NoUser</t>
-  </si>
-  <si>
-    <t>test_create_user_with_new_extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ExtUser,Mitel@123,Mxone@gmail.com,IP,77777-77778,77777,
-number_initiate -number 77777..77778 -numbertype ex,
-ip_extension -e -d 77777,
-extension -e -d 77777,
-number_end -number 77777..77778 -numbertype ex
-</t>
   </si>
   <si>
     <t>http://10.211.162.111/mp</t>
@@ -140,6 +108,18 @@
   <si>
     <t>TestUsr1,Mitel@123,Mitel@gmail.com,MitelFirst,MitelSecond,
 Business1,Business2,+917975935256,+918105855417,EditedUser</t>
+  </si>
+  <si>
+    <t>test_delete_user</t>
+  </si>
+  <si>
+    <t>test_userSearchUsingViewSymbol</t>
+  </si>
+  <si>
+    <t>test_delete_user_byClicking_delete_button</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -538,10 +518,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -549,10 +529,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -560,10 +540,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -571,10 +551,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -591,12 +571,12 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.90625" customWidth="1"/>
+    <col min="1" max="1" width="37.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="60.08984375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -619,7 +599,7 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -627,40 +607,40 @@
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="145" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -722,12 +702,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/PM/src/main/java/testData/TestData.xlsx
+++ b/PM/src/main/java/testData/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mallikar\git\PM\PM\src\main\java\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD47179C-6864-4EF1-BB6A-A5D201ACA628}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51102EA7-DA6E-40C3-AB0D-E70B85F2F93E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="34">
   <si>
     <t>Arjuna,Arjuna@12345</t>
   </si>
@@ -120,6 +120,18 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>test_user_print</t>
+  </si>
+  <si>
+    <t>test_viewUser_with_viewButton</t>
+  </si>
+  <si>
+    <t>test_verify_helpText</t>
+  </si>
+  <si>
+    <t>test_delete_multipleUsers</t>
   </si>
 </sst>
 </file>
@@ -568,10 +580,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ECD1104-8824-4B0E-911A-8B0EFA495306}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -643,6 +655,47 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
         <v>5</v>
       </c>
     </row>

--- a/PM/src/main/java/testData/TestData.xlsx
+++ b/PM/src/main/java/testData/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mallikar\git\PM\PM\src\main\java\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51102EA7-DA6E-40C3-AB0D-E70B85F2F93E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB38409-D851-4477-830E-1E12C167751F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
   <si>
     <t>Arjuna,Arjuna@12345</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>test_delete_multipleUsers</t>
+  </si>
+  <si>
+    <t>test_search_using_wildCard_star</t>
   </si>
 </sst>
 </file>
@@ -580,10 +583,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ECD1104-8824-4B0E-911A-8B0EFA495306}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -696,6 +699,17 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
         <v>5</v>
       </c>
     </row>

--- a/PM/src/main/java/testData/TestData.xlsx
+++ b/PM/src/main/java/testData/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mallikar\git\PM\PM\src\main\java\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB38409-D851-4477-830E-1E12C167751F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DE1B2C-E2C2-49D8-AB1D-8BBE1CFA6B0B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
   <si>
     <t>Arjuna,Arjuna@12345</t>
   </si>
@@ -100,12 +100,6 @@
     <t>mxone_budmin,Mxone@456</t>
   </si>
   <si>
-    <t>http://10.211.162.111/mp</t>
-  </si>
-  <si>
-    <t>http://10.211.162.111/wbm</t>
-  </si>
-  <si>
     <t>TestUsr1,Mitel@123,Mitel@gmail.com,MitelFirst,MitelSecond,
 Business1,Business2,+917975935256,+918105855417,EditedUser</t>
   </si>
@@ -135,6 +129,25 @@
   </si>
   <si>
     <t>test_search_using_wildCard_star</t>
+  </si>
+  <si>
+    <t>test_search_using_wildCard_questionMark</t>
+  </si>
+  <si>
+    <t>TestUsr1,Mitel@123,Mitel@gmail.com,MitelFirst,MitelSecond,
+Business1,Business2,+917975935256,+918105855417,TestUsr</t>
+  </si>
+  <si>
+    <t>test_create_IP_extension</t>
+  </si>
+  <si>
+    <t>http://10.211.162.113/mp</t>
+  </si>
+  <si>
+    <t>http://10.211.162.113/wbm</t>
+  </si>
+  <si>
+    <t>number_initiate -number 77777..77779 -numbertype ex,77777-77779,77777,1,FirstName,LastName,Mitel 6869i</t>
   </si>
 </sst>
 </file>
@@ -467,7 +480,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -583,10 +596,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ECD1104-8824-4B0E-911A-8B0EFA495306}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -614,7 +627,7 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -622,48 +635,48 @@
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>13</v>
@@ -674,7 +687,7 @@
     </row>
     <row r="8" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>13</v>
@@ -685,7 +698,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -693,7 +706,7 @@
     </row>
     <row r="10" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>13</v>
@@ -704,12 +717,34 @@
     </row>
     <row r="11" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
         <v>5</v>
       </c>
     </row>
@@ -759,7 +794,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -769,12 +804,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/PM/src/main/java/testData/TestData.xlsx
+++ b/PM/src/main/java/testData/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mallikar\git\PM\PM\src\main\java\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DE1B2C-E2C2-49D8-AB1D-8BBE1CFA6B0B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05B7E1D-986F-42CF-B1EA-A9F08E115931}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
   <si>
     <t>Arjuna,Arjuna@12345</t>
   </si>
@@ -141,13 +141,22 @@
     <t>test_create_IP_extension</t>
   </si>
   <si>
-    <t>http://10.211.162.113/mp</t>
-  </si>
-  <si>
-    <t>http://10.211.162.113/wbm</t>
-  </si>
-  <si>
-    <t>number_initiate -number 77777..77779 -numbertype ex,77777-77779,77777,1,FirstName,LastName,Mitel 6869i</t>
+    <t>number_initiate -number 77777..77779 -numbertype ex,77777-77779,77777,1,FirstName,LastName,Mitel 6869i,ip_extension -e -d 77777,extension -e -d 77777,number_end -number 77777..77779 -numbertype ex</t>
+  </si>
+  <si>
+    <t>http://10.211.162.213/mp</t>
+  </si>
+  <si>
+    <t>http://10.211.162.213/wbm</t>
+  </si>
+  <si>
+    <t>test_delete_IP_extension</t>
+  </si>
+  <si>
+    <t>test_delete_multiple_IP_extension</t>
+  </si>
+  <si>
+    <t>number_initiate -number 70001..70010 -numbertype ex,extension -i -d 70001..70010 -l 1 --csp 0,ip_extension -i -d 70001..70010,70001-70010,ip_extension -e -d 70001..70010,extension -e -d 70001..70010,number_end -number 70001..70010 -numbertype ex</t>
   </si>
 </sst>
 </file>
@@ -596,10 +605,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ECD1104-8824-4B0E-911A-8B0EFA495306}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -737,14 +746,36 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>35</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
         <v>5</v>
       </c>
     </row>
@@ -794,7 +825,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -804,12 +835,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/PM/src/main/java/testData/TestData.xlsx
+++ b/PM/src/main/java/testData/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mallikar\git\PM\PM\src\main\java\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05B7E1D-986F-42CF-B1EA-A9F08E115931}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1C90E1-7CC6-45CD-8D73-5B8DDFE9F081}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
   <si>
     <t>Arjuna,Arjuna@12345</t>
   </si>
@@ -157,6 +157,12 @@
   </si>
   <si>
     <t>number_initiate -number 70001..70010 -numbertype ex,extension -i -d 70001..70010 -l 1 --csp 0,ip_extension -i -d 70001..70010,70001-70010,ip_extension -e -d 70001..70010,extension -e -d 70001..70010,number_end -number 70001..70010 -numbertype ex</t>
+  </si>
+  <si>
+    <t>test_configureParallel_ringing_to_IP</t>
+  </si>
+  <si>
+    <t>number_initiate -number 70001..70003 -numbertype ex,extension -i -d 70001..70003 -l 1 --csp 0,ip_extension -i -d 70001..70003,70001-70003,70001,70002,70003,parallel_ringing -e -d 70001,ip_extension -e -d 70001..70003,extension -e -d 70001..70003,number_end -number 70001..70003 -numbertype ex</t>
   </si>
 </sst>
 </file>
@@ -605,10 +611,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ECD1104-8824-4B0E-911A-8B0EFA495306}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -776,6 +782,17 @@
         <v>41</v>
       </c>
       <c r="C15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
         <v>5</v>
       </c>
     </row>

--- a/PM/src/main/java/testData/TestData.xlsx
+++ b/PM/src/main/java/testData/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mallikar\git\PM\PM\src\main\java\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1C90E1-7CC6-45CD-8D73-5B8DDFE9F081}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B099FED8-0212-485C-816B-4F7940379035}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="46">
   <si>
     <t>Arjuna,Arjuna@12345</t>
   </si>
@@ -144,12 +144,6 @@
     <t>number_initiate -number 77777..77779 -numbertype ex,77777-77779,77777,1,FirstName,LastName,Mitel 6869i,ip_extension -e -d 77777,extension -e -d 77777,number_end -number 77777..77779 -numbertype ex</t>
   </si>
   <si>
-    <t>http://10.211.162.213/mp</t>
-  </si>
-  <si>
-    <t>http://10.211.162.213/wbm</t>
-  </si>
-  <si>
     <t>test_delete_IP_extension</t>
   </si>
   <si>
@@ -163,6 +157,18 @@
   </si>
   <si>
     <t>number_initiate -number 70001..70003 -numbertype ex,extension -i -d 70001..70003 -l 1 --csp 0,ip_extension -i -d 70001..70003,70001-70003,70001,70002,70003,parallel_ringing -e -d 70001,ip_extension -e -d 70001..70003,extension -e -d 70001..70003,number_end -number 70001..70003 -numbertype ex</t>
+  </si>
+  <si>
+    <t>test_editIPExtensionPhoneType</t>
+  </si>
+  <si>
+    <t>http://10.211.162.113/mp</t>
+  </si>
+  <si>
+    <t>http://10.211.162.113/wbm</t>
+  </si>
+  <si>
+    <t>number_initiate -number 80000 -numbertype ex,extension -i -d 80000 -l 1 --csp 0,ip_extension -i -d 80000,80000,Mitel 6873i,ip_extension -e -d 80000,extension -e -d 80000,number_end -number 80000 -numbertype ex</t>
   </si>
 </sst>
 </file>
@@ -611,10 +617,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ECD1104-8824-4B0E-911A-8B0EFA495306}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -765,7 +771,7 @@
     </row>
     <row r="14" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>36</v>
@@ -776,10 +782,10 @@
     </row>
     <row r="15" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -787,12 +793,23 @@
     </row>
     <row r="16" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s">
         <v>5</v>
       </c>
     </row>
@@ -842,7 +859,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -852,12 +869,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
